--- a/data/trans_dic/P16-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6757635831595104</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6604538929740627</v>
+        <v>0.6604538929740625</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5989001252880987</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4489695773954961</v>
+        <v>0.4475399633921537</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4780783332701662</v>
+        <v>0.4784851384944426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4729729096123422</v>
+        <v>0.4745878519158975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4866875016872146</v>
+        <v>0.4815735077029523</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6344089627513693</v>
+        <v>0.6379099341586261</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7094564751176797</v>
+        <v>0.7099159505183184</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6483452284218409</v>
+        <v>0.6502775780892098</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6241496589985588</v>
+        <v>0.6207621049347369</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5729852959941799</v>
+        <v>0.5700125225152002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6049276710060522</v>
+        <v>0.6053630982097241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5736991520801088</v>
+        <v>0.5735219914643095</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5728794333487018</v>
+        <v>0.5758382222213676</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5320939104118128</v>
+        <v>0.530512969802437</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5431079509942535</v>
+        <v>0.5435644799479059</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5332932057655925</v>
+        <v>0.5363819882478341</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5843085704371651</v>
+        <v>0.5824784635388177</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7003642925185752</v>
+        <v>0.6993639534250831</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7624387641892711</v>
+        <v>0.7638341272768098</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7020159532574854</v>
+        <v>0.7022676691765369</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6973201376887985</v>
+        <v>0.695698531899879</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6231812792384223</v>
+        <v>0.6227550144150327</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6490788040920747</v>
+        <v>0.6496772453891035</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6147550861940535</v>
+        <v>0.61491176436561</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6345868538955991</v>
+        <v>0.634687392484008</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.6420381477211019</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6258194458858443</v>
+        <v>0.6258194458858444</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4763290771144278</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3565825801123671</v>
+        <v>0.3578176794065552</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4419862127948229</v>
+        <v>0.4508946392407478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4585899777927567</v>
+        <v>0.4619520460888527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4586655414472841</v>
+        <v>0.4605350255714846</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5382364710692922</v>
+        <v>0.5412217471572033</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.683409162793314</v>
+        <v>0.6825208634642288</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6093016174041284</v>
+        <v>0.6092161760109879</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5993967088807574</v>
+        <v>0.5965738685294656</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4543860350731295</v>
+        <v>0.4539642592291595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5797406494548829</v>
+        <v>0.5801646444802083</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5502620648221714</v>
+        <v>0.5499664180905737</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5413930237490978</v>
+        <v>0.544917064533463</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4165630468547377</v>
+        <v>0.4152381903818573</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5107371616261287</v>
+        <v>0.5127789691511464</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.528661269991927</v>
+        <v>0.5287049060211606</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.531259760944422</v>
+        <v>0.5318799122747692</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6011985653832519</v>
+        <v>0.6011595103927332</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7420225742594645</v>
+        <v>0.7391681497900898</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6696648824553096</v>
+        <v>0.6717174354650824</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6523672342126843</v>
+        <v>0.6490786376683723</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4976709060456039</v>
+        <v>0.4980514736866904</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6242098710716303</v>
+        <v>0.6245300073272201</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5939467674408119</v>
+        <v>0.5926041123714351</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5862999942825312</v>
+        <v>0.5886487999600002</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6557424350889201</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6232299096548285</v>
+        <v>0.6232299096548284</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4524703610902671</v>
@@ -969,7 +969,7 @@
         <v>0.5675664609908856</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5693719204686857</v>
+        <v>0.5693719204686859</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3520131028303262</v>
+        <v>0.3561270974510325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4936538152809463</v>
+        <v>0.4937284594001135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4489681232868303</v>
+        <v>0.4487306864630369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4757563935482973</v>
+        <v>0.4810777082044365</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4988499696878987</v>
+        <v>0.4991149623356439</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6455042955889658</v>
+        <v>0.6457403721852423</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6212380515999472</v>
+        <v>0.6237934081178673</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5945438067324973</v>
+        <v>0.5945523250048638</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4272431703570415</v>
+        <v>0.4338132253727465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5787266662131009</v>
+        <v>0.5779539385138489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5418921260046015</v>
+        <v>0.5414607126498521</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.546445752373371</v>
+        <v>0.5448590265410056</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4115079401707524</v>
+        <v>0.4122987785938941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5623195501783363</v>
+        <v>0.5613795709388433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5176008626678812</v>
+        <v>0.526877978979739</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5483424254825353</v>
+        <v>0.5496041112348459</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5613223961127933</v>
+        <v>0.5622727540404934</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7106693862090143</v>
+        <v>0.7087490546896105</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6903044982116855</v>
+        <v>0.6898989675677146</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6512013852230072</v>
+        <v>0.6485516766633123</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4725201600236152</v>
+        <v>0.4772478423645238</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6279658020751553</v>
+        <v>0.6273167691547079</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5918708495688155</v>
+        <v>0.5937945953754774</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5902633095376809</v>
+        <v>0.5900308364963963</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5064299967179152</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5511738996283271</v>
+        <v>0.5511738996283272</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5396952963183307</v>
@@ -1093,7 +1093,7 @@
         <v>0.5772619564756548</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6353598656150029</v>
+        <v>0.6353598656150027</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4474992294869271</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3294335973291213</v>
+        <v>0.3325396226358804</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4530678044020083</v>
+        <v>0.446804324180126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4592298791292678</v>
+        <v>0.4591392896259989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5097894383382353</v>
+        <v>0.517040051415245</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4835620384392307</v>
+        <v>0.4867073258345196</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5935018416568917</v>
+        <v>0.5953539527581933</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5302776096796795</v>
+        <v>0.5325654734365426</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6053075726608748</v>
+        <v>0.6068539607707452</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4095820924180404</v>
+        <v>0.4124844750881013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5319399366979966</v>
+        <v>0.5331588441144017</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5077038322539961</v>
+        <v>0.511351883611297</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.568370684924533</v>
+        <v>0.5685040791192358</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.420211826728667</v>
+        <v>0.4241476448693366</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5451393266617781</v>
+        <v>0.5380661510946768</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5520546090213599</v>
+        <v>0.5513379470179761</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5815008047613501</v>
+        <v>0.5919724644506836</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5891572559221899</v>
+        <v>0.5901731991542297</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6855025135593604</v>
+        <v>0.6856820048840401</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6198673126573878</v>
+        <v>0.6225302735973077</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6637271404586766</v>
+        <v>0.6659943584135319</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4814149526664677</v>
+        <v>0.4828347953595856</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5981416096751349</v>
+        <v>0.5988969443406111</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5737527429126221</v>
+        <v>0.5733597161224396</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6158843470733324</v>
+        <v>0.6159638789399734</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4967323750353057</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5231780115070115</v>
+        <v>0.5231780115070116</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5823376108862028</v>
@@ -1241,7 +1241,7 @@
         <v>0.5741595313351784</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5798672976190715</v>
+        <v>0.5798672976190716</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3831743230037688</v>
+        <v>0.3842834809678976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4857231077519122</v>
+        <v>0.485686618513965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4791491601826834</v>
+        <v>0.4816058197230103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5043020963497088</v>
+        <v>0.5041357220779298</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5643458793330778</v>
+        <v>0.5644671060993149</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6856726315892514</v>
+        <v>0.6852161938435841</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6316425538305886</v>
+        <v>0.6315180749270743</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6173598381308084</v>
+        <v>0.6189430716709803</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4814852704941923</v>
+        <v>0.4805077281176888</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5937656652732819</v>
+        <v>0.5930929151729553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5634392805065628</v>
+        <v>0.5620644174835124</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5692512104667586</v>
+        <v>0.568539494201955</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4200198633482406</v>
+        <v>0.4198213836983366</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5224393887622241</v>
+        <v>0.5222536304896064</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5126863674423504</v>
+        <v>0.5157670291567393</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5420908874041076</v>
+        <v>0.5418992621666177</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5991260835593775</v>
+        <v>0.5999796025594812</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7186477316263539</v>
+        <v>0.7181802673916323</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6637098667288165</v>
+        <v>0.6637533881956176</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6486837599262053</v>
+        <v>0.6486398956062209</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5060158920270404</v>
+        <v>0.5059049098456089</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6172618808036513</v>
+        <v>0.6174490336939612</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5870037194096668</v>
+        <v>0.586431651908131</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5924193665973175</v>
+        <v>0.591837248321803</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>262262</v>
+        <v>261426</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>498066</v>
+        <v>498490</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>533512</v>
+        <v>535334</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>242730</v>
+        <v>240179</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>585136</v>
+        <v>588365</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>794540</v>
+        <v>795055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>816630</v>
+        <v>819064</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>389207</v>
+        <v>387095</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>863187</v>
+        <v>858709</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1307695</v>
+        <v>1308636</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1369740</v>
+        <v>1369317</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>642954</v>
+        <v>646275</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>310818</v>
+        <v>309894</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>565814</v>
+        <v>566290</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>601553</v>
+        <v>605037</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>291417</v>
+        <v>290505</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>645969</v>
+        <v>645046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>853877</v>
+        <v>855439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>884232</v>
+        <v>884549</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>434835</v>
+        <v>433824</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>938806</v>
+        <v>938164</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1403138</v>
+        <v>1404431</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1467763</v>
+        <v>1468138</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>712210</v>
+        <v>712322</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>384358</v>
+        <v>385690</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>431089</v>
+        <v>439777</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>416778</v>
+        <v>419834</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>440382</v>
+        <v>442177</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>569206</v>
+        <v>572363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>747829</v>
+        <v>746857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>613247</v>
+        <v>613161</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>668475</v>
+        <v>665327</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>970310</v>
+        <v>969410</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1199835</v>
+        <v>1200713</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1053917</v>
+        <v>1053351</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1123598</v>
+        <v>1130912</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>449011</v>
+        <v>447583</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>498144</v>
+        <v>500136</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>480461</v>
+        <v>480500</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>510082</v>
+        <v>510678</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>635790</v>
+        <v>635749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>811967</v>
+        <v>808844</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>674001</v>
+        <v>676067</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>727550</v>
+        <v>723882</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1062742</v>
+        <v>1063555</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1291869</v>
+        <v>1292532</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1137586</v>
+        <v>1135015</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1216797</v>
+        <v>1221672</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>394457</v>
+        <v>399067</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>436481</v>
+        <v>436547</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>369842</v>
+        <v>369646</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>497869</v>
+        <v>503438</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>495827</v>
+        <v>496090</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>564663</v>
+        <v>564869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>479011</v>
+        <v>480982</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>622869</v>
+        <v>622878</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>903413</v>
+        <v>917305</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1017950</v>
+        <v>1016590</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>864219</v>
+        <v>863531</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1144324</v>
+        <v>1141001</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>461126</v>
+        <v>462012</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>497195</v>
+        <v>496363</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>426378</v>
+        <v>434020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>573829</v>
+        <v>575149</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>557921</v>
+        <v>558865</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>621667</v>
+        <v>619987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>532265</v>
+        <v>531953</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>682226</v>
+        <v>679450</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>999151</v>
+        <v>1009148</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1104559</v>
+        <v>1103417</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>943926</v>
+        <v>946994</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1236083</v>
+        <v>1235596</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>147323</v>
+        <v>148712</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>227904</v>
+        <v>224753</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>232692</v>
+        <v>232646</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>497518</v>
+        <v>504594</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>164971</v>
+        <v>166044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>267591</v>
+        <v>268426</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>259676</v>
+        <v>260796</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>550008</v>
+        <v>551413</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>322897</v>
+        <v>325185</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>507413</v>
+        <v>508575</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>505875</v>
+        <v>509510</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1071135</v>
+        <v>1071386</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>187919</v>
+        <v>189679</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>274218</v>
+        <v>270660</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>279727</v>
+        <v>279363</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>567503</v>
+        <v>577723</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>200996</v>
+        <v>201342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>309071</v>
+        <v>309152</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>303548</v>
+        <v>304852</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>603090</v>
+        <v>605150</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>379527</v>
+        <v>380647</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>570562</v>
+        <v>571282</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>571686</v>
+        <v>571294</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1160678</v>
+        <v>1160828</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1237581</v>
+        <v>1241163</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1653576</v>
+        <v>1653452</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1613430</v>
+        <v>1621703</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1755619</v>
+        <v>1755040</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1870789</v>
+        <v>1871191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2427158</v>
+        <v>2425542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2227672</v>
+        <v>2227233</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2281213</v>
+        <v>2287063</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3151215</v>
+        <v>3144817</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4123216</v>
+        <v>4118545</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3884393</v>
+        <v>3874914</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4085172</v>
+        <v>4080064</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1356585</v>
+        <v>1355944</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1778572</v>
+        <v>1777939</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1726360</v>
+        <v>1736733</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1887172</v>
+        <v>1886505</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1986084</v>
+        <v>1988914</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2543884</v>
+        <v>2542229</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2340767</v>
+        <v>2340920</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2396958</v>
+        <v>2396796</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3311763</v>
+        <v>3311036</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4286378</v>
+        <v>4287678</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4046848</v>
+        <v>4042904</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4251435</v>
+        <v>4247258</v>
       </c>
     </row>
     <row r="24">
